--- a/home_version/results/set_count1.xlsx
+++ b/home_version/results/set_count1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="28">
   <si>
     <t>L</t>
   </si>
@@ -76,16 +76,28 @@
     <t>hours</t>
   </si>
   <si>
-    <t/>
+    <t>Leucocytes Admission NC LacticAcid IV Antibiotics IV Liquid Release D Return ER Release A ER Triage CRP ER Registration ER Sepsis Triage</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>Admission NC IV Liquid CRP ER Registration Return ER Release B Release A LacticAcid IV Antibiotics Release C Admission IC ER Triage Leucocytes ER Sepsis Triage Release D</t>
+    <t>Leucocytes Admission NC Release C LacticAcid IV Antibiotics IV Liquid Release D Return ER Release A ER Triage CRP ER Registration Release B ER Sepsis Triage</t>
   </si>
   <si>
-    <t>Admission NC IV Liquid CRP ER Registration Return ER Release A LacticAcid IV Antibiotics ER Triage Leucocytes ER Sepsis Triage</t>
+    <t>Leucocytes Admission NC Release C LacticAcid IV Antibiotics IV Liquid Release D Return ER Release A Admission IC ER Triage CRP ER Registration Release B ER Sepsis Triage</t>
+  </si>
+  <si>
+    <t>Leucocytes Admission NC LacticAcid IV Antibiotics IV Liquid Return ER Release A ER Triage CRP ER Registration ER Sepsis Triage</t>
+  </si>
+  <si>
+    <t>Leucocytes Admission NC LacticAcid IV Antibiotics IV Liquid Return ER Release A ER Triage CRP ER Registration Release B ER Sepsis Triage</t>
+  </si>
+  <si>
+    <t>Leucocytes Admission NC LacticAcid IV Antibiotics IV Liquid Return ER Release A Admission IC ER Triage CRP ER Registration Release B ER Sepsis Triage</t>
+  </si>
+  <si>
+    <t>Leucocytes Admission NC LacticAcid IV Antibiotics IV Liquid Return ER Release A Admission IC ER Triage CRP ER Registration ER Sepsis Triage</t>
   </si>
 </sst>
 </file>
@@ -417,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,46 +502,46 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2112927139226207</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3488714354408614</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="M2">
-        <v>15214</v>
+        <v>1892</v>
       </c>
       <c r="N2">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="s">
         <v>20</v>
       </c>
       <c r="R2">
-        <v>15.27317214012146</v>
+        <v>11.61560797691345</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -540,46 +552,46 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2112927139226207</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3488714354408614</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="M3">
-        <v>15214</v>
+        <v>1892</v>
       </c>
       <c r="N3">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" t="s">
         <v>20</v>
       </c>
       <c r="R3">
-        <v>15.27317214012146</v>
+        <v>11.61560797691345</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -590,10 +602,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -602,19 +614,19 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.1756942483290972</v>
+        <v>0.1821015048210756</v>
       </c>
       <c r="J4">
-        <v>0.2988774480759683</v>
+        <v>0.3080979155823657</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M4">
-        <v>663</v>
+        <v>1043</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -623,13 +635,13 @@
         <v>844</v>
       </c>
       <c r="P4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q4" t="s">
         <v>22</v>
       </c>
       <c r="R4">
-        <v>7.180109262466431</v>
+        <v>7.529486656188965</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -640,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -652,19 +664,19 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0.1756942483290972</v>
+        <v>0.1821015048210756</v>
       </c>
       <c r="J5">
-        <v>0.2988774480759683</v>
+        <v>0.3080979155823657</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M5">
-        <v>663</v>
+        <v>1043</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -673,13 +685,13 @@
         <v>844</v>
       </c>
       <c r="P5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q5" t="s">
         <v>22</v>
       </c>
       <c r="R5">
-        <v>7.180109262466431</v>
+        <v>7.529486656188965</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -687,49 +699,49 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1756942483290972</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2988774480759683</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="M6">
-        <v>15214</v>
+        <v>763</v>
       </c>
       <c r="N6">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>844</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R6">
-        <v>8.201184749603271</v>
+        <v>7.263924837112427</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -737,49 +749,49 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1756942483290972</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2988774480759683</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="M7">
-        <v>15214</v>
+        <v>763</v>
       </c>
       <c r="N7">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>844</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R7">
-        <v>8.201184749603271</v>
+        <v>7.263924837112427</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -787,13 +799,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -802,34 +814,34 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.2302572462837924</v>
+        <v>0.1756942483290972</v>
       </c>
       <c r="J8">
-        <v>0.3743237391680883</v>
+        <v>0.2988774480759683</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="M8">
-        <v>2133</v>
+        <v>663</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="P8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q8" t="s">
         <v>23</v>
       </c>
       <c r="R8">
-        <v>5.451836585998535</v>
+        <v>7.365334272384644</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -837,13 +849,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -852,34 +864,34 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0.2302572462837924</v>
+        <v>0.1756942483290972</v>
       </c>
       <c r="J9">
-        <v>0.3743237391680883</v>
+        <v>0.2988774480759683</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="M9">
-        <v>2133</v>
+        <v>663</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="P9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q9" t="s">
         <v>23</v>
       </c>
       <c r="R9">
-        <v>5.451836585998535</v>
+        <v>7.365334272384644</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -887,49 +899,49 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2302572462837924</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3743237391680883</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="M10">
-        <v>15214</v>
+        <v>1980</v>
       </c>
       <c r="N10">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R10">
-        <v>9.37278413772583</v>
+        <v>8.294690132141113</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -937,49 +949,49 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D11">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2302572462837924</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3743237391680883</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="M11">
-        <v>15214</v>
+        <v>1980</v>
       </c>
       <c r="N11">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R11">
-        <v>9.37278413772583</v>
+        <v>8.294690132141113</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -987,13 +999,13 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D12">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -1002,34 +1014,34 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.1756942483290972</v>
+        <v>0.2118634095829803</v>
       </c>
       <c r="J12">
-        <v>0.2988774480759683</v>
+        <v>0.3496489916398839</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="M12">
-        <v>663</v>
+        <v>1227</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R12">
-        <v>5.623668909072876</v>
+        <v>7.869626760482788</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1037,13 +1049,13 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D13">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1052,34 +1064,34 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.1756942483290972</v>
+        <v>0.2118634095829803</v>
       </c>
       <c r="J13">
-        <v>0.2988774480759683</v>
+        <v>0.3496489916398839</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="M13">
-        <v>663</v>
+        <v>1227</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R13">
-        <v>5.623668909072876</v>
+        <v>7.869626760482788</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1087,49 +1099,49 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="C14">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D14">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.202181044033628</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3363570654138055</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="M14">
-        <v>15214</v>
+        <v>947</v>
       </c>
       <c r="N14">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R14">
-        <v>8.451135635375977</v>
+        <v>7.575722455978394</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1137,49 +1149,49 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D15">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.202181044033628</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3363570654138055</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="M15">
-        <v>15214</v>
+        <v>947</v>
       </c>
       <c r="N15">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R15">
-        <v>8.451135635375977</v>
+        <v>7.575722455978394</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1187,13 +1199,13 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D16">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -1202,34 +1214,34 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.2302572462837924</v>
+        <v>0.202181044033628</v>
       </c>
       <c r="J16">
-        <v>0.3743237391680883</v>
+        <v>0.3363570654138055</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="M16">
-        <v>2133</v>
+        <v>900</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="P16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R16">
-        <v>7.09207558631897</v>
+        <v>7.935713291168213</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1237,13 +1249,13 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="C17">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D17">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -1252,34 +1264,4034 @@
         <v>1</v>
       </c>
       <c r="I17">
+        <v>0.202181044033628</v>
+      </c>
+      <c r="J17">
+        <v>0.3363570654138055</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>176</v>
+      </c>
+      <c r="M17">
+        <v>900</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>843</v>
+      </c>
+      <c r="P17">
+        <v>13</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17">
+        <v>7.935713291168213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <v>0.2</v>
+      </c>
+      <c r="D18">
+        <v>0.7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>0.2302572462837924</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>0.3743237391680883</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>189</v>
+      </c>
+      <c r="M18">
+        <v>2082</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>801</v>
+      </c>
+      <c r="P18">
+        <v>11</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18">
+        <v>8.373044729232788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>80</v>
+      </c>
+      <c r="C19">
+        <v>0.2</v>
+      </c>
+      <c r="D19">
+        <v>0.7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J19">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>189</v>
+      </c>
+      <c r="M19">
+        <v>2082</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>801</v>
+      </c>
+      <c r="P19">
+        <v>11</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19">
+        <v>8.373044729232788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <v>0.7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J20">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>187</v>
+      </c>
+      <c r="M20">
+        <v>1597</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>839</v>
+      </c>
+      <c r="P20">
+        <v>11</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20">
+        <v>8.299795627593994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>80</v>
+      </c>
+      <c r="C21">
+        <v>0.3</v>
+      </c>
+      <c r="D21">
+        <v>0.7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J21">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>187</v>
+      </c>
+      <c r="M21">
+        <v>1597</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>839</v>
+      </c>
+      <c r="P21">
+        <v>11</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21">
+        <v>8.299795627593994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>80</v>
+      </c>
+      <c r="C22">
+        <v>0.4</v>
+      </c>
+      <c r="D22">
+        <v>0.7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0.2182351972135932</v>
+      </c>
+      <c r="J22">
+        <v>0.3582808930701581</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>185</v>
+      </c>
+      <c r="M22">
+        <v>1386</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>839</v>
+      </c>
+      <c r="P22">
+        <v>12</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22">
+        <v>8.299090147018433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>80</v>
+      </c>
+      <c r="C23">
+        <v>0.4</v>
+      </c>
+      <c r="D23">
+        <v>0.7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0.2182351972135932</v>
+      </c>
+      <c r="J23">
+        <v>0.3582808930701581</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>185</v>
+      </c>
+      <c r="M23">
+        <v>1386</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>839</v>
+      </c>
+      <c r="P23">
+        <v>12</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23">
+        <v>8.299090147018433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+      <c r="C24">
+        <v>0.5</v>
+      </c>
+      <c r="D24">
+        <v>0.7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0.2182351972135932</v>
+      </c>
+      <c r="J24">
+        <v>0.3582808930701581</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>185</v>
+      </c>
+      <c r="M24">
+        <v>1386</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>839</v>
+      </c>
+      <c r="P24">
+        <v>12</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24">
+        <v>8.285298347473145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>80</v>
+      </c>
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+      <c r="D25">
+        <v>0.7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0.2182351972135932</v>
+      </c>
+      <c r="J25">
+        <v>0.3582808930701581</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>185</v>
+      </c>
+      <c r="M25">
+        <v>1386</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>839</v>
+      </c>
+      <c r="P25">
+        <v>12</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25">
+        <v>8.285298347473145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>160</v>
+      </c>
+      <c r="C26">
+        <v>0.2</v>
+      </c>
+      <c r="D26">
+        <v>0.7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J26">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>194</v>
+      </c>
+      <c r="M26">
+        <v>2618</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>799</v>
+      </c>
+      <c r="P26">
+        <v>11</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26">
+        <v>8.677997350692749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>160</v>
+      </c>
+      <c r="C27">
+        <v>0.2</v>
+      </c>
+      <c r="D27">
+        <v>0.7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J27">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>194</v>
+      </c>
+      <c r="M27">
+        <v>2618</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>799</v>
+      </c>
+      <c r="P27">
+        <v>11</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27">
+        <v>8.677997350692749</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>160</v>
+      </c>
+      <c r="C28">
+        <v>0.3</v>
+      </c>
+      <c r="D28">
+        <v>0.7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J28">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
         <v>192</v>
       </c>
-      <c r="M17">
+      <c r="M28">
         <v>2133</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>839</v>
       </c>
-      <c r="P17">
+      <c r="P28">
         <v>11</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q28" t="s">
+        <v>24</v>
+      </c>
+      <c r="R28">
+        <v>8.42888069152832</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>160</v>
+      </c>
+      <c r="C29">
+        <v>0.3</v>
+      </c>
+      <c r="D29">
+        <v>0.7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J29">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>192</v>
+      </c>
+      <c r="M29">
+        <v>2133</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>839</v>
+      </c>
+      <c r="P29">
+        <v>11</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29">
+        <v>8.42888069152832</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>160</v>
+      </c>
+      <c r="C30">
+        <v>0.4</v>
+      </c>
+      <c r="D30">
+        <v>0.7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J30">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>192</v>
+      </c>
+      <c r="M30">
+        <v>2133</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>839</v>
+      </c>
+      <c r="P30">
+        <v>11</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30">
+        <v>8.343527793884277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>160</v>
+      </c>
+      <c r="C31">
+        <v>0.4</v>
+      </c>
+      <c r="D31">
+        <v>0.7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J31">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>192</v>
+      </c>
+      <c r="M31">
+        <v>2133</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>839</v>
+      </c>
+      <c r="P31">
+        <v>11</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31">
+        <v>8.343527793884277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>160</v>
+      </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="D32">
+        <v>0.7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J32">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>192</v>
+      </c>
+      <c r="M32">
+        <v>2133</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>839</v>
+      </c>
+      <c r="P32">
+        <v>11</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32">
+        <v>8.686208248138428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>160</v>
+      </c>
+      <c r="C33">
+        <v>0.5</v>
+      </c>
+      <c r="D33">
+        <v>0.7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J33">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>192</v>
+      </c>
+      <c r="M33">
+        <v>2133</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>839</v>
+      </c>
+      <c r="P33">
+        <v>11</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33">
+        <v>8.686208248138428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>0.2</v>
+      </c>
+      <c r="D34">
+        <v>0.8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0.2112927139226207</v>
+      </c>
+      <c r="J34">
+        <v>0.3488714354408614</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>184</v>
+      </c>
+      <c r="M34">
+        <v>1892</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>801</v>
+      </c>
+      <c r="P34">
+        <v>12</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34">
+        <v>8.303502559661865</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>0.2</v>
+      </c>
+      <c r="D35">
+        <v>0.8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0.2112927139226207</v>
+      </c>
+      <c r="J35">
+        <v>0.3488714354408614</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>184</v>
+      </c>
+      <c r="M35">
+        <v>1892</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>801</v>
+      </c>
+      <c r="P35">
+        <v>12</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35">
+        <v>8.303502559661865</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>0.3</v>
+      </c>
+      <c r="D36">
+        <v>0.8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0.1821015048210756</v>
+      </c>
+      <c r="J36">
+        <v>0.3080979155823657</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>173</v>
+      </c>
+      <c r="M36">
+        <v>1043</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>844</v>
+      </c>
+      <c r="P36">
+        <v>14</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R36">
+        <v>7.504182815551758</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>0.3</v>
+      </c>
+      <c r="D37">
+        <v>0.8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0.1821015048210756</v>
+      </c>
+      <c r="J37">
+        <v>0.3080979155823657</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>173</v>
+      </c>
+      <c r="M37">
+        <v>1043</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>844</v>
+      </c>
+      <c r="P37">
+        <v>14</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>22</v>
+      </c>
+      <c r="R37">
+        <v>7.504182815551758</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>0.4</v>
+      </c>
+      <c r="D38">
+        <v>0.8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0.1756942483290972</v>
+      </c>
+      <c r="J38">
+        <v>0.2988774480759683</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>170</v>
+      </c>
+      <c r="M38">
+        <v>763</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>844</v>
+      </c>
+      <c r="P38">
+        <v>15</v>
+      </c>
+      <c r="Q38" t="s">
         <v>23</v>
       </c>
-      <c r="R17">
-        <v>7.09207558631897</v>
+      <c r="R38">
+        <v>7.46869945526123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>0.4</v>
+      </c>
+      <c r="D39">
+        <v>0.8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0.1756942483290972</v>
+      </c>
+      <c r="J39">
+        <v>0.2988774480759683</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>170</v>
+      </c>
+      <c r="M39">
+        <v>763</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>844</v>
+      </c>
+      <c r="P39">
+        <v>15</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>23</v>
+      </c>
+      <c r="R39">
+        <v>7.46869945526123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>0.5</v>
+      </c>
+      <c r="D40">
+        <v>0.8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0.1756942483290972</v>
+      </c>
+      <c r="J40">
+        <v>0.2988774480759683</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>167</v>
+      </c>
+      <c r="M40">
+        <v>663</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>844</v>
+      </c>
+      <c r="P40">
+        <v>15</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>23</v>
+      </c>
+      <c r="R40">
+        <v>7.511873245239258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>0.5</v>
+      </c>
+      <c r="D41">
+        <v>0.8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0.1756942483290972</v>
+      </c>
+      <c r="J41">
+        <v>0.2988774480759683</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>167</v>
+      </c>
+      <c r="M41">
+        <v>663</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>844</v>
+      </c>
+      <c r="P41">
+        <v>15</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>23</v>
+      </c>
+      <c r="R41">
+        <v>7.511873245239258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.2</v>
+      </c>
+      <c r="D42">
+        <v>0.8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J42">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>187</v>
+      </c>
+      <c r="M42">
+        <v>1980</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>801</v>
+      </c>
+      <c r="P42">
+        <v>11</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R42">
+        <v>8.38326096534729</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <v>0.2</v>
+      </c>
+      <c r="D43">
+        <v>0.8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J43">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>187</v>
+      </c>
+      <c r="M43">
+        <v>1980</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>801</v>
+      </c>
+      <c r="P43">
+        <v>11</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R43">
+        <v>8.38326096534729</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>0.3</v>
+      </c>
+      <c r="D44">
+        <v>0.8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0.2118634095829803</v>
+      </c>
+      <c r="J44">
+        <v>0.3496489916398839</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>180</v>
+      </c>
+      <c r="M44">
+        <v>1227</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>843</v>
+      </c>
+      <c r="P44">
+        <v>12</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>25</v>
+      </c>
+      <c r="R44">
+        <v>7.681272745132446</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>40</v>
+      </c>
+      <c r="C45">
+        <v>0.3</v>
+      </c>
+      <c r="D45">
+        <v>0.8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0.2118634095829803</v>
+      </c>
+      <c r="J45">
+        <v>0.3496489916398839</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>180</v>
+      </c>
+      <c r="M45">
+        <v>1227</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>843</v>
+      </c>
+      <c r="P45">
+        <v>12</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>25</v>
+      </c>
+      <c r="R45">
+        <v>7.681272745132446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <v>0.4</v>
+      </c>
+      <c r="D46">
+        <v>0.8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0.202181044033628</v>
+      </c>
+      <c r="J46">
+        <v>0.3363570654138055</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>177</v>
+      </c>
+      <c r="M46">
+        <v>947</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>843</v>
+      </c>
+      <c r="P46">
+        <v>13</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>26</v>
+      </c>
+      <c r="R46">
+        <v>7.694130420684814</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>40</v>
+      </c>
+      <c r="C47">
+        <v>0.4</v>
+      </c>
+      <c r="D47">
+        <v>0.8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0.202181044033628</v>
+      </c>
+      <c r="J47">
+        <v>0.3363570654138055</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>177</v>
+      </c>
+      <c r="M47">
+        <v>947</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>843</v>
+      </c>
+      <c r="P47">
+        <v>13</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>26</v>
+      </c>
+      <c r="R47">
+        <v>7.694130420684814</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <v>0.5</v>
+      </c>
+      <c r="D48">
+        <v>0.8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0.202181044033628</v>
+      </c>
+      <c r="J48">
+        <v>0.3363570654138055</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>176</v>
+      </c>
+      <c r="M48">
+        <v>900</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>843</v>
+      </c>
+      <c r="P48">
+        <v>13</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>26</v>
+      </c>
+      <c r="R48">
+        <v>7.866076707839966</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>40</v>
+      </c>
+      <c r="C49">
+        <v>0.5</v>
+      </c>
+      <c r="D49">
+        <v>0.8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0.202181044033628</v>
+      </c>
+      <c r="J49">
+        <v>0.3363570654138055</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>176</v>
+      </c>
+      <c r="M49">
+        <v>900</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>843</v>
+      </c>
+      <c r="P49">
+        <v>13</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>26</v>
+      </c>
+      <c r="R49">
+        <v>7.866076707839966</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>80</v>
+      </c>
+      <c r="C50">
+        <v>0.2</v>
+      </c>
+      <c r="D50">
+        <v>0.8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J50">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>189</v>
+      </c>
+      <c r="M50">
+        <v>2082</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>801</v>
+      </c>
+      <c r="P50">
+        <v>11</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>24</v>
+      </c>
+      <c r="R50">
+        <v>8.809001922607422</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>80</v>
+      </c>
+      <c r="C51">
+        <v>0.2</v>
+      </c>
+      <c r="D51">
+        <v>0.8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J51">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>189</v>
+      </c>
+      <c r="M51">
+        <v>2082</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>801</v>
+      </c>
+      <c r="P51">
+        <v>11</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>24</v>
+      </c>
+      <c r="R51">
+        <v>8.809001922607422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>80</v>
+      </c>
+      <c r="C52">
+        <v>0.3</v>
+      </c>
+      <c r="D52">
+        <v>0.8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J52">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>187</v>
+      </c>
+      <c r="M52">
+        <v>1597</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>839</v>
+      </c>
+      <c r="P52">
+        <v>11</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R52">
+        <v>8.372837066650391</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>80</v>
+      </c>
+      <c r="C53">
+        <v>0.3</v>
+      </c>
+      <c r="D53">
+        <v>0.8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J53">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>187</v>
+      </c>
+      <c r="M53">
+        <v>1597</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>839</v>
+      </c>
+      <c r="P53">
+        <v>11</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>24</v>
+      </c>
+      <c r="R53">
+        <v>8.372837066650391</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>80</v>
+      </c>
+      <c r="C54">
+        <v>0.4</v>
+      </c>
+      <c r="D54">
+        <v>0.8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0.2182351972135932</v>
+      </c>
+      <c r="J54">
+        <v>0.3582808930701581</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>185</v>
+      </c>
+      <c r="M54">
+        <v>1386</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>839</v>
+      </c>
+      <c r="P54">
+        <v>12</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>27</v>
+      </c>
+      <c r="R54">
+        <v>8.395197153091431</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>0.4</v>
+      </c>
+      <c r="D55">
+        <v>0.8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0.2182351972135932</v>
+      </c>
+      <c r="J55">
+        <v>0.3582808930701581</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>185</v>
+      </c>
+      <c r="M55">
+        <v>1386</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>839</v>
+      </c>
+      <c r="P55">
+        <v>12</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>27</v>
+      </c>
+      <c r="R55">
+        <v>8.395197153091431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>80</v>
+      </c>
+      <c r="C56">
+        <v>0.5</v>
+      </c>
+      <c r="D56">
+        <v>0.8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0.2182351972135932</v>
+      </c>
+      <c r="J56">
+        <v>0.3582808930701581</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>185</v>
+      </c>
+      <c r="M56">
+        <v>1386</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>839</v>
+      </c>
+      <c r="P56">
+        <v>12</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>27</v>
+      </c>
+      <c r="R56">
+        <v>10.76195096969604</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>80</v>
+      </c>
+      <c r="C57">
+        <v>0.5</v>
+      </c>
+      <c r="D57">
+        <v>0.8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0.2182351972135932</v>
+      </c>
+      <c r="J57">
+        <v>0.3582808930701581</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>185</v>
+      </c>
+      <c r="M57">
+        <v>1386</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>839</v>
+      </c>
+      <c r="P57">
+        <v>12</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>27</v>
+      </c>
+      <c r="R57">
+        <v>10.76195096969604</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>160</v>
+      </c>
+      <c r="C58">
+        <v>0.2</v>
+      </c>
+      <c r="D58">
+        <v>0.8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J58">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>194</v>
+      </c>
+      <c r="M58">
+        <v>2618</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>799</v>
+      </c>
+      <c r="P58">
+        <v>11</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>24</v>
+      </c>
+      <c r="R58">
+        <v>8.635993242263794</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>160</v>
+      </c>
+      <c r="C59">
+        <v>0.2</v>
+      </c>
+      <c r="D59">
+        <v>0.8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J59">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>194</v>
+      </c>
+      <c r="M59">
+        <v>2618</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>799</v>
+      </c>
+      <c r="P59">
+        <v>11</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>24</v>
+      </c>
+      <c r="R59">
+        <v>8.635993242263794</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>160</v>
+      </c>
+      <c r="C60">
+        <v>0.3</v>
+      </c>
+      <c r="D60">
+        <v>0.8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J60">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>192</v>
+      </c>
+      <c r="M60">
+        <v>2133</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>839</v>
+      </c>
+      <c r="P60">
+        <v>11</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>24</v>
+      </c>
+      <c r="R60">
+        <v>8.943815946578979</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>160</v>
+      </c>
+      <c r="C61">
+        <v>0.3</v>
+      </c>
+      <c r="D61">
+        <v>0.8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J61">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>192</v>
+      </c>
+      <c r="M61">
+        <v>2133</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>839</v>
+      </c>
+      <c r="P61">
+        <v>11</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>24</v>
+      </c>
+      <c r="R61">
+        <v>8.943815946578979</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>160</v>
+      </c>
+      <c r="C62">
+        <v>0.4</v>
+      </c>
+      <c r="D62">
+        <v>0.8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J62">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>192</v>
+      </c>
+      <c r="M62">
+        <v>2133</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>839</v>
+      </c>
+      <c r="P62">
+        <v>11</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>24</v>
+      </c>
+      <c r="R62">
+        <v>8.938775539398193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>160</v>
+      </c>
+      <c r="C63">
+        <v>0.4</v>
+      </c>
+      <c r="D63">
+        <v>0.8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J63">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>192</v>
+      </c>
+      <c r="M63">
+        <v>2133</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>839</v>
+      </c>
+      <c r="P63">
+        <v>11</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>24</v>
+      </c>
+      <c r="R63">
+        <v>8.938775539398193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>160</v>
+      </c>
+      <c r="C64">
+        <v>0.5</v>
+      </c>
+      <c r="D64">
+        <v>0.8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J64">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>192</v>
+      </c>
+      <c r="M64">
+        <v>2133</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>839</v>
+      </c>
+      <c r="P64">
+        <v>11</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>24</v>
+      </c>
+      <c r="R64">
+        <v>8.504388332366943</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>160</v>
+      </c>
+      <c r="C65">
+        <v>0.5</v>
+      </c>
+      <c r="D65">
+        <v>0.8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J65">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>192</v>
+      </c>
+      <c r="M65">
+        <v>2133</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>839</v>
+      </c>
+      <c r="P65">
+        <v>11</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>24</v>
+      </c>
+      <c r="R65">
+        <v>8.504388332366943</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>0.2</v>
+      </c>
+      <c r="D66">
+        <v>0.9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0.2112927139226207</v>
+      </c>
+      <c r="J66">
+        <v>0.3488714354408614</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>184</v>
+      </c>
+      <c r="M66">
+        <v>1892</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>801</v>
+      </c>
+      <c r="P66">
+        <v>12</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>20</v>
+      </c>
+      <c r="R66">
+        <v>8.525641202926636</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>20</v>
+      </c>
+      <c r="C67">
+        <v>0.2</v>
+      </c>
+      <c r="D67">
+        <v>0.9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0.2112927139226207</v>
+      </c>
+      <c r="J67">
+        <v>0.3488714354408614</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>184</v>
+      </c>
+      <c r="M67">
+        <v>1892</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>801</v>
+      </c>
+      <c r="P67">
+        <v>12</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R67">
+        <v>8.525641202926636</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>20</v>
+      </c>
+      <c r="C68">
+        <v>0.3</v>
+      </c>
+      <c r="D68">
+        <v>0.9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0.1821015048210756</v>
+      </c>
+      <c r="J68">
+        <v>0.3080979155823657</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>173</v>
+      </c>
+      <c r="M68">
+        <v>1043</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>844</v>
+      </c>
+      <c r="P68">
+        <v>14</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>22</v>
+      </c>
+      <c r="R68">
+        <v>7.651757717132568</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>0.3</v>
+      </c>
+      <c r="D69">
+        <v>0.9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>0.1821015048210756</v>
+      </c>
+      <c r="J69">
+        <v>0.3080979155823657</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>173</v>
+      </c>
+      <c r="M69">
+        <v>1043</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>844</v>
+      </c>
+      <c r="P69">
+        <v>14</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>22</v>
+      </c>
+      <c r="R69">
+        <v>7.651757717132568</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>0.4</v>
+      </c>
+      <c r="D70">
+        <v>0.9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0.1756942483290972</v>
+      </c>
+      <c r="J70">
+        <v>0.2988774480759683</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>170</v>
+      </c>
+      <c r="M70">
+        <v>763</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>844</v>
+      </c>
+      <c r="P70">
+        <v>15</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>23</v>
+      </c>
+      <c r="R70">
+        <v>7.397627592086792</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>0.4</v>
+      </c>
+      <c r="D71">
+        <v>0.9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0.1756942483290972</v>
+      </c>
+      <c r="J71">
+        <v>0.2988774480759683</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>170</v>
+      </c>
+      <c r="M71">
+        <v>763</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>844</v>
+      </c>
+      <c r="P71">
+        <v>15</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>23</v>
+      </c>
+      <c r="R71">
+        <v>7.397627592086792</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>0.5</v>
+      </c>
+      <c r="D72">
+        <v>0.9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>0.1756942483290972</v>
+      </c>
+      <c r="J72">
+        <v>0.2988774480759683</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>167</v>
+      </c>
+      <c r="M72">
+        <v>663</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>844</v>
+      </c>
+      <c r="P72">
+        <v>15</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>23</v>
+      </c>
+      <c r="R72">
+        <v>7.652204275131226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>0.5</v>
+      </c>
+      <c r="D73">
+        <v>0.9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0.1756942483290972</v>
+      </c>
+      <c r="J73">
+        <v>0.2988774480759683</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>167</v>
+      </c>
+      <c r="M73">
+        <v>663</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>844</v>
+      </c>
+      <c r="P73">
+        <v>15</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>23</v>
+      </c>
+      <c r="R73">
+        <v>7.652204275131226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>40</v>
+      </c>
+      <c r="C74">
+        <v>0.2</v>
+      </c>
+      <c r="D74">
+        <v>0.9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J74">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>187</v>
+      </c>
+      <c r="M74">
+        <v>1980</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>801</v>
+      </c>
+      <c r="P74">
+        <v>11</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>24</v>
+      </c>
+      <c r="R74">
+        <v>8.30151891708374</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>40</v>
+      </c>
+      <c r="C75">
+        <v>0.2</v>
+      </c>
+      <c r="D75">
+        <v>0.9</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J75">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>187</v>
+      </c>
+      <c r="M75">
+        <v>1980</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>801</v>
+      </c>
+      <c r="P75">
+        <v>11</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>24</v>
+      </c>
+      <c r="R75">
+        <v>8.30151891708374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>40</v>
+      </c>
+      <c r="C76">
+        <v>0.3</v>
+      </c>
+      <c r="D76">
+        <v>0.9</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>0.2118634095829803</v>
+      </c>
+      <c r="J76">
+        <v>0.3496489916398839</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>180</v>
+      </c>
+      <c r="M76">
+        <v>1227</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>843</v>
+      </c>
+      <c r="P76">
+        <v>12</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>25</v>
+      </c>
+      <c r="R76">
+        <v>8.029001235961914</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>40</v>
+      </c>
+      <c r="C77">
+        <v>0.3</v>
+      </c>
+      <c r="D77">
+        <v>0.9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0.2118634095829803</v>
+      </c>
+      <c r="J77">
+        <v>0.3496489916398839</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>180</v>
+      </c>
+      <c r="M77">
+        <v>1227</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>843</v>
+      </c>
+      <c r="P77">
+        <v>12</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>25</v>
+      </c>
+      <c r="R77">
+        <v>8.029001235961914</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>40</v>
+      </c>
+      <c r="C78">
+        <v>0.4</v>
+      </c>
+      <c r="D78">
+        <v>0.9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>0.202181044033628</v>
+      </c>
+      <c r="J78">
+        <v>0.3363570654138055</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>177</v>
+      </c>
+      <c r="M78">
+        <v>947</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>843</v>
+      </c>
+      <c r="P78">
+        <v>13</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>26</v>
+      </c>
+      <c r="R78">
+        <v>7.976136445999146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>40</v>
+      </c>
+      <c r="C79">
+        <v>0.4</v>
+      </c>
+      <c r="D79">
+        <v>0.9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0.202181044033628</v>
+      </c>
+      <c r="J79">
+        <v>0.3363570654138055</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>177</v>
+      </c>
+      <c r="M79">
+        <v>947</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>843</v>
+      </c>
+      <c r="P79">
+        <v>13</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>26</v>
+      </c>
+      <c r="R79">
+        <v>7.976136445999146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>40</v>
+      </c>
+      <c r="C80">
+        <v>0.5</v>
+      </c>
+      <c r="D80">
+        <v>0.9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>0.202181044033628</v>
+      </c>
+      <c r="J80">
+        <v>0.3363570654138055</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>176</v>
+      </c>
+      <c r="M80">
+        <v>900</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>843</v>
+      </c>
+      <c r="P80">
+        <v>13</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>26</v>
+      </c>
+      <c r="R80">
+        <v>7.714534282684326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>40</v>
+      </c>
+      <c r="C81">
+        <v>0.5</v>
+      </c>
+      <c r="D81">
+        <v>0.9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>0.202181044033628</v>
+      </c>
+      <c r="J81">
+        <v>0.3363570654138055</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>176</v>
+      </c>
+      <c r="M81">
+        <v>900</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>843</v>
+      </c>
+      <c r="P81">
+        <v>13</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>26</v>
+      </c>
+      <c r="R81">
+        <v>7.714534282684326</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82">
+        <v>0.2</v>
+      </c>
+      <c r="D82">
+        <v>0.9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J82">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>189</v>
+      </c>
+      <c r="M82">
+        <v>2082</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>801</v>
+      </c>
+      <c r="P82">
+        <v>11</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>24</v>
+      </c>
+      <c r="R82">
+        <v>8.537660837173462</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>80</v>
+      </c>
+      <c r="C83">
+        <v>0.2</v>
+      </c>
+      <c r="D83">
+        <v>0.9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J83">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>189</v>
+      </c>
+      <c r="M83">
+        <v>2082</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>801</v>
+      </c>
+      <c r="P83">
+        <v>11</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>24</v>
+      </c>
+      <c r="R83">
+        <v>8.537660837173462</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>80</v>
+      </c>
+      <c r="C84">
+        <v>0.3</v>
+      </c>
+      <c r="D84">
+        <v>0.9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J84">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>187</v>
+      </c>
+      <c r="M84">
+        <v>1597</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>839</v>
+      </c>
+      <c r="P84">
+        <v>11</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>24</v>
+      </c>
+      <c r="R84">
+        <v>8.861547708511353</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>80</v>
+      </c>
+      <c r="C85">
+        <v>0.3</v>
+      </c>
+      <c r="D85">
+        <v>0.9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J85">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>187</v>
+      </c>
+      <c r="M85">
+        <v>1597</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>839</v>
+      </c>
+      <c r="P85">
+        <v>11</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>24</v>
+      </c>
+      <c r="R85">
+        <v>8.861547708511353</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>80</v>
+      </c>
+      <c r="C86">
+        <v>0.4</v>
+      </c>
+      <c r="D86">
+        <v>0.9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>0.2182351972135932</v>
+      </c>
+      <c r="J86">
+        <v>0.3582808930701581</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>185</v>
+      </c>
+      <c r="M86">
+        <v>1386</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>839</v>
+      </c>
+      <c r="P86">
+        <v>12</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>27</v>
+      </c>
+      <c r="R86">
+        <v>8.209023475646973</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>80</v>
+      </c>
+      <c r="C87">
+        <v>0.4</v>
+      </c>
+      <c r="D87">
+        <v>0.9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>0.2182351972135932</v>
+      </c>
+      <c r="J87">
+        <v>0.3582808930701581</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>185</v>
+      </c>
+      <c r="M87">
+        <v>1386</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>839</v>
+      </c>
+      <c r="P87">
+        <v>12</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>27</v>
+      </c>
+      <c r="R87">
+        <v>8.209023475646973</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>80</v>
+      </c>
+      <c r="C88">
+        <v>0.5</v>
+      </c>
+      <c r="D88">
+        <v>0.9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>0.2182351972135932</v>
+      </c>
+      <c r="J88">
+        <v>0.3582808930701581</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>185</v>
+      </c>
+      <c r="M88">
+        <v>1386</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>839</v>
+      </c>
+      <c r="P88">
+        <v>12</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>27</v>
+      </c>
+      <c r="R88">
+        <v>8.316452503204346</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>80</v>
+      </c>
+      <c r="C89">
+        <v>0.5</v>
+      </c>
+      <c r="D89">
+        <v>0.9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>0.2182351972135932</v>
+      </c>
+      <c r="J89">
+        <v>0.3582808930701581</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>185</v>
+      </c>
+      <c r="M89">
+        <v>1386</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>839</v>
+      </c>
+      <c r="P89">
+        <v>12</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>27</v>
+      </c>
+      <c r="R89">
+        <v>8.316452503204346</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>160</v>
+      </c>
+      <c r="C90">
+        <v>0.2</v>
+      </c>
+      <c r="D90">
+        <v>0.9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J90">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>194</v>
+      </c>
+      <c r="M90">
+        <v>2618</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>799</v>
+      </c>
+      <c r="P90">
+        <v>11</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>24</v>
+      </c>
+      <c r="R90">
+        <v>8.909672260284424</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>160</v>
+      </c>
+      <c r="C91">
+        <v>0.2</v>
+      </c>
+      <c r="D91">
+        <v>0.9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J91">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>194</v>
+      </c>
+      <c r="M91">
+        <v>2618</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>799</v>
+      </c>
+      <c r="P91">
+        <v>11</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>24</v>
+      </c>
+      <c r="R91">
+        <v>8.909672260284424</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>160</v>
+      </c>
+      <c r="C92">
+        <v>0.3</v>
+      </c>
+      <c r="D92">
+        <v>0.9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J92">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>192</v>
+      </c>
+      <c r="M92">
+        <v>2133</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>839</v>
+      </c>
+      <c r="P92">
+        <v>11</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>24</v>
+      </c>
+      <c r="R92">
+        <v>8.609963417053223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>160</v>
+      </c>
+      <c r="C93">
+        <v>0.3</v>
+      </c>
+      <c r="D93">
+        <v>0.9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J93">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>192</v>
+      </c>
+      <c r="M93">
+        <v>2133</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>839</v>
+      </c>
+      <c r="P93">
+        <v>11</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>24</v>
+      </c>
+      <c r="R93">
+        <v>8.609963417053223</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>160</v>
+      </c>
+      <c r="C94">
+        <v>0.4</v>
+      </c>
+      <c r="D94">
+        <v>0.9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J94">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>192</v>
+      </c>
+      <c r="M94">
+        <v>2133</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>839</v>
+      </c>
+      <c r="P94">
+        <v>11</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>24</v>
+      </c>
+      <c r="R94">
+        <v>8.494530916213989</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>160</v>
+      </c>
+      <c r="C95">
+        <v>0.4</v>
+      </c>
+      <c r="D95">
+        <v>0.9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J95">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>192</v>
+      </c>
+      <c r="M95">
+        <v>2133</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>839</v>
+      </c>
+      <c r="P95">
+        <v>11</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>24</v>
+      </c>
+      <c r="R95">
+        <v>8.494530916213989</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>160</v>
+      </c>
+      <c r="C96">
+        <v>0.5</v>
+      </c>
+      <c r="D96">
+        <v>0.9</v>
+      </c>
+      <c r="E96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J96">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>192</v>
+      </c>
+      <c r="M96">
+        <v>2133</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>839</v>
+      </c>
+      <c r="P96">
+        <v>11</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>24</v>
+      </c>
+      <c r="R96">
+        <v>8.584666728973389</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>160</v>
+      </c>
+      <c r="C97">
+        <v>0.5</v>
+      </c>
+      <c r="D97">
+        <v>0.9</v>
+      </c>
+      <c r="E97" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>0.2302572462837924</v>
+      </c>
+      <c r="J97">
+        <v>0.3743237391680883</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>192</v>
+      </c>
+      <c r="M97">
+        <v>2133</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>839</v>
+      </c>
+      <c r="P97">
+        <v>11</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>24</v>
+      </c>
+      <c r="R97">
+        <v>8.584666728973389</v>
       </c>
     </row>
   </sheetData>
